--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\environment\workspace\junit-refactoring-sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26518"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23840" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -208,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,7 +241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,17 +428,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -448,7 +446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -459,7 +457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -470,7 +468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -478,10 +476,11 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <f t="shared" ref="C5:C8" si="0">FACT(B5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -489,10 +488,11 @@
         <v>2</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -500,10 +500,11 @@
         <v>3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -511,10 +512,11 @@
         <v>4</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -522,14 +524,14 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9" si="0">FACT(B9)</f>
+        <f t="shared" ref="C9" si="1">FACT(B9)</f>
         <v>39916800</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -541,7 +543,7 @@
         <v>479001600</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -555,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -569,6 +571,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>